--- a/instance/stock/sz/sz.xlsx
+++ b/instance/stock/sz/sz.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
@@ -460,66 +460,86 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>0428 - 0429</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>0425 - 0428</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>0424 - 0425</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>0423 - 0424</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ000426</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002564，2025/04/29 11:45:12</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001226</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002479</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002592</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ002592</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002085</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002836</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301335</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ301335</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002139</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301109</t>
         </is>
@@ -528,15 +548,20 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SZ001228</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SZ002564</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002917</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002917</t>
         </is>
@@ -545,123 +570,163 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SZ002054</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SZ002836</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300018</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300018</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="1" t="inlineStr">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ002249</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300790</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300790</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="2" t="inlineStr">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ002380</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301161</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301161</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ301161</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="B9" s="1" t="inlineStr">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ002649</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301279</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301279</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="1" t="inlineStr">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ002559</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301282</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301282</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="1" t="inlineStr">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ002454</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301298</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301298</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301330</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301330</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301353</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301353</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="1" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301566</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301566</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="2" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301658</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ301658</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301658</t>
         </is>

--- a/instance/stock/sz/sz.xlsx
+++ b/instance/stock/sz/sz.xlsx
@@ -680,6 +680,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ002852</t>
+        </is>
+      </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301330</t>
@@ -692,6 +697,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ002885</t>
+        </is>
+      </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301353</t>
@@ -704,6 +714,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ002996</t>
+        </is>
+      </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301566</t>

--- a/instance/stock/sz/sz.xlsx
+++ b/instance/stock/sz/sz.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
@@ -460,20 +460,35 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>0506 - 0507</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>0430 - 0506</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>0502 - 0505</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>0428 - 0429</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>0425 - 0428</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>0424 - 0425</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>0423 - 0424</t>
         </is>
@@ -482,20 +497,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SZ002033</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ000532</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ002852</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SZ000426</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002564，2025/04/29 11:45:12</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="F2" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001226</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002479</t>
         </is>
@@ -507,17 +537,32 @@
           <t>https://xueqiu.com/S/SZ002592</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002592</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ002592</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ002592</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ002592</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002085</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002836</t>
         </is>
@@ -529,17 +574,32 @@
           <t>https://xueqiu.com/S/SZ301335</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301335</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ301335</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ301335</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ301335</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002139</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301109</t>
         </is>
@@ -548,20 +608,35 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SZ002164</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ000570</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ300505</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SZ001228</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002564</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="F5" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002917</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002917</t>
         </is>
@@ -570,20 +645,35 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SZ002251</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ000600</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ300562</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SZ002054</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002836</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="F6" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300018</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300018</t>
         </is>
@@ -592,15 +682,30 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SZ002367</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ000715</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ000532</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SZ002249</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="F7" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300790</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300790</t>
         </is>
@@ -609,20 +714,35 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SZ002538</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ002255</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ000570</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SZ002380</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301161</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301161</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301161</t>
         </is>
@@ -631,15 +751,30 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SZ003000</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ300703</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ000600</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SZ002649</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="F9" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301279</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301279</t>
         </is>
@@ -648,83 +783,138 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SZ301029</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ000601</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ000715</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SZ002559</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="F10" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301282</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301282</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ000862</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ000862</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002454</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="F11" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301298</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301298</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ001333</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ000863</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002852</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="F12" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301330</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301330</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ002469</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ000899</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002885</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="F13" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301353</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301353</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ002537</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ001209</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002996</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="F14" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301566</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301566</t>
         </is>
@@ -733,17 +923,253 @@
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SZ002615</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SZ301658</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301658</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301658</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ301658</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ301658</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ300673</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ001211</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ300773</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ001333</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ300783</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ002090</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ300793</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ002250</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ300945</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ002258</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ301009</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ002478</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ301151</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ002537</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ301156</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ002565</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ001209</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ002615</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ001211</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ002803</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ002565</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ002836</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ002803</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ002982</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ003037</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ300138</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ300610</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ300673</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ300773</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ300783</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ300793</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ300945</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ301009</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ301151</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ301156</t>
         </is>
       </c>
     </row>

--- a/instance/stock/sz/sz.xlsx
+++ b/instance/stock/sz/sz.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
@@ -460,35 +460,45 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>0508 - 0509</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>0507 - 0508</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>0506 - 0507</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>0430 - 0506</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>0502 - 0505</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>0428 - 0429</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>0425 - 0428</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>0424 - 0425</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>0423 - 0424</t>
         </is>
@@ -497,35 +507,45 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SZ002345</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ001282</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SZ002033</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000532</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002852</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000426</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002564，2025/04/29 11:45:12</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="H2" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001226</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002479</t>
         </is>
@@ -552,17 +572,27 @@
           <t>https://xueqiu.com/S/SZ002592</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002592</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ002592</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ002592</t>
+        </is>
+      </c>
+      <c r="H3" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002085</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002836</t>
         </is>
@@ -589,17 +619,27 @@
           <t>https://xueqiu.com/S/SZ301335</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301335</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ301335</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ301335</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002139</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301109</t>
         </is>
@@ -608,205 +648,240 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SZ301283</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ000600</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SZ002164</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000570</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300505</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001228</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002564</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="H5" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002917</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002917</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ000862</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002251</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000600</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300562</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002054</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002836</t>
         </is>
       </c>
-      <c r="F6" s="1" t="inlineStr">
+      <c r="H6" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300018</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300018</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ001206</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002367</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000715</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000532</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002249</t>
         </is>
       </c>
-      <c r="F7" s="1" t="inlineStr">
+      <c r="H7" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300790</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300790</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ001367</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002538</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002255</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000570</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002380</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301161</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301161</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301161</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ002106</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ003000</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300703</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000600</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002649</t>
         </is>
       </c>
-      <c r="F9" s="1" t="inlineStr">
+      <c r="H9" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301279</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301279</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ000533</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301029</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000601</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000715</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002559</t>
         </is>
       </c>
-      <c r="F10" s="1" t="inlineStr">
+      <c r="H10" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301282</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301282</t>
         </is>
@@ -815,25 +890,30 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SZ001260</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SZ000862</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000862</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002454</t>
         </is>
       </c>
-      <c r="F11" s="1" t="inlineStr">
+      <c r="H11" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301298</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301298</t>
         </is>
@@ -842,25 +922,30 @@
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SZ002384</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SZ001333</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000863</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002852</t>
         </is>
       </c>
-      <c r="F12" s="1" t="inlineStr">
+      <c r="H12" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301330</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301330</t>
         </is>
@@ -869,25 +954,30 @@
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SZ002486</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SZ002469</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000899</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002885</t>
         </is>
       </c>
-      <c r="F13" s="1" t="inlineStr">
+      <c r="H13" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301353</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301353</t>
         </is>
@@ -896,25 +986,30 @@
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SZ300409</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SZ002537</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001209</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002996</t>
         </is>
       </c>
-      <c r="F14" s="1" t="inlineStr">
+      <c r="H14" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301566</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301566</t>
         </is>
@@ -923,30 +1018,40 @@
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SZ300539</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ301658</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SZ002615</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301658</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301658</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301658</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="H15" s="2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301658</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301658</t>
         </is>
@@ -955,10 +1060,15 @@
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SZ300562</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SZ300673</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001211</t>
         </is>
@@ -967,10 +1077,15 @@
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SZ300771</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SZ300773</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001333</t>
         </is>
@@ -979,10 +1094,15 @@
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SZ300787</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SZ300783</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002090</t>
         </is>
@@ -991,10 +1111,15 @@
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SZ300873</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SZ300793</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002250</t>
         </is>
@@ -1003,10 +1128,15 @@
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SZ300885</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SZ300945</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002258</t>
         </is>
@@ -1015,10 +1145,15 @@
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SZ300967</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SZ301009</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002478</t>
         </is>
@@ -1027,10 +1162,15 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SZ300988</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SZ301151</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002537</t>
         </is>
@@ -1039,10 +1179,15 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SZ301063</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SZ301156</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002565</t>
         </is>
@@ -1051,10 +1196,15 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SZ301167</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SZ001209</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002615</t>
         </is>
@@ -1063,10 +1213,15 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SZ301279</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SZ001211</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002803</t>
         </is>
@@ -1075,10 +1230,15 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SZ301320</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SZ002565</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002836</t>
         </is>
@@ -1087,87 +1247,97 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SZ301359</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SZ002803</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002982</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="C28" t="inlineStr">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ301602</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ003037</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300138</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300610</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300673</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300773</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300783</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300793</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300945</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301009</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301151</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301156</t>
         </is>

--- a/instance/stock/sz/sz.xlsx
+++ b/instance/stock/sz/sz.xlsx
@@ -693,6 +693,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ000677</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000862</t>
@@ -735,6 +740,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ300507</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001206</t>

--- a/instance/stock/sz/sz.xlsx
+++ b/instance/stock/sz/sz.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
@@ -460,45 +460,50 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>0513 - 0514</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>0508 - 0509</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>0507 - 0508</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>0506 - 0507</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>0430 - 0506</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>0502 - 0505</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>0428 - 0429</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>0425 - 0428</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>0424 - 0425</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>0423 - 0424</t>
         </is>
@@ -507,45 +512,50 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SZ000677</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SZ002345</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001282</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002033</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000532</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002852</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000426</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002564，2025/04/29 11:45:12</t>
         </is>
       </c>
-      <c r="H2" s="1" t="inlineStr">
+      <c r="I2" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001226</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002479</t>
         </is>
@@ -582,17 +592,22 @@
           <t>https://xueqiu.com/S/SZ002592</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002592</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ002592</t>
+        </is>
+      </c>
+      <c r="I3" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002085</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002836</t>
         </is>
@@ -629,17 +644,22 @@
           <t>https://xueqiu.com/S/SZ301335</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301335</t>
         </is>
       </c>
-      <c r="H4" s="1" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ301335</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002139</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301109</t>
         </is>
@@ -648,45 +668,50 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SZ002103</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SZ301283</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000600</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002164</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000570</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300505</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001228</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002564</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
+      <c r="I5" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002917</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002917</t>
         </is>
@@ -695,45 +720,50 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SZ002803</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SZ000677</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000862</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002251</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000600</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300562</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002054</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002836</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr">
+      <c r="I6" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300018</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300018</t>
         </is>
@@ -742,40 +772,45 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SZ002982</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SZ300507</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001206</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002367</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000715</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000532</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002249</t>
         </is>
       </c>
-      <c r="H7" s="1" t="inlineStr">
+      <c r="I7" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300790</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300790</t>
         </is>
@@ -784,242 +819,247 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SZ301161</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SZ001367</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002538</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002255</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000570</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002380</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301161</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301161</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301161</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002106</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ003000</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300703</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000600</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002649</t>
         </is>
       </c>
-      <c r="H9" s="1" t="inlineStr">
+      <c r="I9" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301279</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301279</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000533</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301029</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000601</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000715</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002559</t>
         </is>
       </c>
-      <c r="H10" s="1" t="inlineStr">
+      <c r="I10" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301282</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301282</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001260</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000862</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000862</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002454</t>
         </is>
       </c>
-      <c r="H11" s="1" t="inlineStr">
+      <c r="I11" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301298</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301298</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002384</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001333</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000863</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002852</t>
         </is>
       </c>
-      <c r="H12" s="1" t="inlineStr">
+      <c r="I12" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301330</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301330</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002486</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002469</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000899</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002885</t>
         </is>
       </c>
-      <c r="H13" s="1" t="inlineStr">
+      <c r="I13" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301353</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301353</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300409</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002537</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001209</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002996</t>
         </is>
       </c>
-      <c r="H14" s="1" t="inlineStr">
+      <c r="I14" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301566</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301566</t>
         </is>
@@ -1028,326 +1068,331 @@
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SZ301658</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SZ300539</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301658</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002615</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301658</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301658</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301658</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
+      <c r="I15" s="2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301658</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301658</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300562</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300673</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001211</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300771</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300773</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001333</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300787</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300783</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002090</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300873</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300793</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002250</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300885</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300945</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002258</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300967</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301009</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002478</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="B22" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300988</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301151</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002537</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301063</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301156</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002565</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="B24" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301167</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001209</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002615</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="B25" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301279</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001211</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002803</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301320</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002565</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002836</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301359</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002803</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002982</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="B28" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301602</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ003037</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300138</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300610</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300673</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300773</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300783</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300793</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300945</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301009</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301151</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301156</t>
         </is>

--- a/instance/stock/sz/sz.xlsx
+++ b/instance/stock/sz/sz.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
@@ -460,50 +460,55 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>0515 - 0516</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>0513 - 0514</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>0508 - 0509</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>0507 - 0508</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>0506 - 0507</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>0430 - 0506</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>0502 - 0505</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>0428 - 0429</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>0425 - 0428</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>0424 - 0425</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>0423 - 0424</t>
         </is>
@@ -512,50 +517,55 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SZ000863</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SZ000677</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002345</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001282</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002033</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000532</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002852</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000426</t>
         </is>
       </c>
-      <c r="H2" s="2" t="inlineStr">
+      <c r="I2" s="2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002564，2025/04/29 11:45:12</t>
         </is>
       </c>
-      <c r="I2" s="1" t="inlineStr">
+      <c r="J2" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001226</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002479</t>
         </is>
@@ -597,17 +607,22 @@
           <t>https://xueqiu.com/S/SZ002592</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002592</t>
         </is>
       </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="I3" s="2" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ002592</t>
+        </is>
+      </c>
+      <c r="J3" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002085</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002836</t>
         </is>
@@ -649,17 +664,22 @@
           <t>https://xueqiu.com/S/SZ301335</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301335</t>
         </is>
       </c>
-      <c r="I4" s="1" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ301335</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002139</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301109</t>
         </is>
@@ -668,50 +688,55 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SZ002722</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SZ002103</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301283</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000600</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002164</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000570</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300505</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001228</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002564</t>
         </is>
       </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="J5" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002917</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002917</t>
         </is>
@@ -720,50 +745,55 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SZ300891</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SZ002803</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000677</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000862</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002251</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000600</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300562</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002054</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002836</t>
         </is>
       </c>
-      <c r="I6" s="1" t="inlineStr">
+      <c r="J6" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300018</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300018</t>
         </is>
@@ -772,51 +802,61 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SZ001333</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SZ002982</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300507</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001206</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002367</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000715</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000532</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002249</t>
         </is>
       </c>
-      <c r="I7" s="1" t="inlineStr">
+      <c r="J7" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300790</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300790</t>
         </is>
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ002357</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301161</t>
@@ -824,242 +864,247 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SZ301161</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SZ001367</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002538</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002255</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000570</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002380</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301161</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301161</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301161</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002106</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ003000</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300703</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000600</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002649</t>
         </is>
       </c>
-      <c r="I9" s="1" t="inlineStr">
+      <c r="J9" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301279</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301279</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000533</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301029</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000601</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000715</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002559</t>
         </is>
       </c>
-      <c r="I10" s="1" t="inlineStr">
+      <c r="J10" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301282</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301282</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001260</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000862</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000862</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002454</t>
         </is>
       </c>
-      <c r="I11" s="1" t="inlineStr">
+      <c r="J11" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301298</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301298</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002384</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001333</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000863</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002852</t>
         </is>
       </c>
-      <c r="I12" s="1" t="inlineStr">
+      <c r="J12" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301330</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301330</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002486</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002469</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000899</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002885</t>
         </is>
       </c>
-      <c r="I13" s="1" t="inlineStr">
+      <c r="J13" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301353</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301353</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300409</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002537</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001209</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002996</t>
         </is>
       </c>
-      <c r="I14" s="1" t="inlineStr">
+      <c r="J14" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301566</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301566</t>
         </is>
@@ -1073,326 +1118,331 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SZ301658</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SZ300539</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301658</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002615</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301658</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301658</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301658</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
+      <c r="J15" s="2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301658</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301658</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300562</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300673</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001211</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300771</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300773</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001333</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300787</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300783</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002090</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300873</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300793</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002250</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300885</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300945</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002258</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300967</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301009</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002478</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300988</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301151</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002537</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301063</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301156</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002565</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301167</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001209</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002615</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301279</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001211</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002803</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301320</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002565</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002836</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301359</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002803</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002982</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301602</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ003037</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300138</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300610</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300673</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300773</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300783</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300793</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300945</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301009</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301151</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301156</t>
         </is>

--- a/instance/stock/sz/sz.xlsx
+++ b/instance/stock/sz/sz.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
@@ -460,55 +460,60 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>0516 - 0519</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>0515 - 0516</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>0513 - 0514</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>0508 - 0509</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>0507 - 0508</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>0506 - 0507</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>0430 - 0506</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>0502 - 0505</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>0428 - 0429</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>0425 - 0428</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>0424 - 0425</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>0423 - 0424</t>
         </is>
@@ -517,55 +522,60 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SZ000507</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SZ000863</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000677</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002345</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001282</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002033</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000532</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002852</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000426</t>
         </is>
       </c>
-      <c r="I2" s="2" t="inlineStr">
+      <c r="J2" s="2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002564，2025/04/29 11:45:12</t>
         </is>
       </c>
-      <c r="J2" s="1" t="inlineStr">
+      <c r="K2" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001226</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002479</t>
         </is>
@@ -612,17 +622,22 @@
           <t>https://xueqiu.com/S/SZ002592</t>
         </is>
       </c>
-      <c r="I3" s="2" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002592</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ002592</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002085</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002836</t>
         </is>
@@ -669,17 +684,22 @@
           <t>https://xueqiu.com/S/SZ301335</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301335</t>
         </is>
       </c>
-      <c r="J4" s="1" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ301335</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002139</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301109</t>
         </is>
@@ -688,55 +708,60 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SZ000905</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SZ002722</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002103</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301283</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000600</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002164</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000570</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300505</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001228</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002564</t>
         </is>
       </c>
-      <c r="J5" s="1" t="inlineStr">
+      <c r="K5" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002917</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002917</t>
         </is>
@@ -745,55 +770,60 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SZ001234</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SZ300891</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002803</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000677</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000862</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002251</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000600</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300562</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002054</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002836</t>
         </is>
       </c>
-      <c r="J6" s="1" t="inlineStr">
+      <c r="K6" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300018</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300018</t>
         </is>
@@ -802,50 +832,55 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SZ001205</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SZ001333</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002982</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300507</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001206</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002367</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000715</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000532</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002249</t>
         </is>
       </c>
-      <c r="J7" s="1" t="inlineStr">
+      <c r="K7" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300790</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300790</t>
         </is>
@@ -854,257 +889,287 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SZ002492</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SZ002357</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301161</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301161</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001367</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002538</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002255</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000570</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002380</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301161</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
+      <c r="K8" s="2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301161</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301161</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="D9" t="inlineStr">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ300387</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002106</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ003000</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300703</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000600</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002649</t>
         </is>
       </c>
-      <c r="J9" s="1" t="inlineStr">
+      <c r="K9" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301279</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301279</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="D10" t="inlineStr">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ300473</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000533</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301029</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000601</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000715</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002559</t>
         </is>
       </c>
-      <c r="J10" s="1" t="inlineStr">
+      <c r="K10" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301282</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301282</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="D11" t="inlineStr">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ300834</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001260</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000862</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000862</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002454</t>
         </is>
       </c>
-      <c r="J11" s="1" t="inlineStr">
+      <c r="K11" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301298</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301298</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="D12" t="inlineStr">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ300922</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002384</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001333</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000863</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002852</t>
         </is>
       </c>
-      <c r="J12" s="1" t="inlineStr">
+      <c r="K12" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301330</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301330</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="D13" t="inlineStr">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ301658</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002486</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002469</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000899</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002885</t>
         </is>
       </c>
-      <c r="J13" s="1" t="inlineStr">
+      <c r="K13" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301353</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301353</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300409</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002537</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001209</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002996</t>
         </is>
       </c>
-      <c r="J14" s="1" t="inlineStr">
+      <c r="K14" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301566</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301566</t>
         </is>
@@ -1123,326 +1188,331 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SZ301658</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SZ300539</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301658</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002615</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301658</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301658</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301658</t>
         </is>
       </c>
-      <c r="J15" s="2" t="inlineStr">
+      <c r="K15" s="2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301658</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301658</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300562</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300673</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001211</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300771</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300773</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001333</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300787</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300783</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002090</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300873</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300793</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002250</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300885</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300945</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002258</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300967</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301009</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002478</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300988</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301151</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002537</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301063</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301156</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002565</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301167</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001209</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002615</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301279</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001211</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002803</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301320</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002565</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002836</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301359</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002803</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002982</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301602</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ003037</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300138</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300610</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300673</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300773</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300783</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300793</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300945</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301009</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301151</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301156</t>
         </is>

--- a/instance/stock/sz/sz.xlsx
+++ b/instance/stock/sz/sz.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
@@ -460,60 +460,65 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>0519 - 0520</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>0516 - 0519</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>0515 - 0516</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>0513 - 0514</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>0508 - 0509</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>0507 - 0508</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>0506 - 0507</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>0430 - 0506</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>0502 - 0505</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>0428 - 0429</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>0425 - 0428</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>0424 - 0425</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>0423 - 0424</t>
         </is>
@@ -522,60 +527,65 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SZ001356</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SZ000507</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000863</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000677</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002345</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001282</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002033</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000532</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002852</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000426</t>
         </is>
       </c>
-      <c r="J2" s="2" t="inlineStr">
+      <c r="K2" s="2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002564，2025/04/29 11:45:12</t>
         </is>
       </c>
-      <c r="K2" s="1" t="inlineStr">
+      <c r="L2" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001226</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002479</t>
         </is>
@@ -627,17 +637,22 @@
           <t>https://xueqiu.com/S/SZ002592</t>
         </is>
       </c>
-      <c r="J3" s="2" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002592</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="K3" s="2" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ002592</t>
+        </is>
+      </c>
+      <c r="L3" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002085</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002836</t>
         </is>
@@ -689,17 +704,22 @@
           <t>https://xueqiu.com/S/SZ301335</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301335</t>
         </is>
       </c>
-      <c r="K4" s="1" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ301335</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002139</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301109</t>
         </is>
@@ -708,60 +728,65 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SZ002245</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SZ000905</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002722</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002103</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301283</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000600</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002164</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000570</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300505</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001228</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002564</t>
         </is>
       </c>
-      <c r="K5" s="1" t="inlineStr">
+      <c r="L5" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002917</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002917</t>
         </is>
@@ -770,406 +795,411 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SZ002553</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SZ001234</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300891</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002803</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000677</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000862</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002251</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000600</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300562</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002054</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002836</t>
         </is>
       </c>
-      <c r="K6" s="1" t="inlineStr">
+      <c r="L6" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300018</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300018</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001205</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001333</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002982</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300507</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001206</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002367</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000715</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000532</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002249</t>
         </is>
       </c>
-      <c r="K7" s="1" t="inlineStr">
+      <c r="L7" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300790</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300790</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002492</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002357</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301161</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301161</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001367</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002538</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002255</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000570</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002380</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301161</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
+      <c r="L8" s="2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301161</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301161</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300387</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002106</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ003000</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300703</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000600</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002649</t>
         </is>
       </c>
-      <c r="K9" s="1" t="inlineStr">
+      <c r="L9" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301279</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301279</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300473</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000533</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301029</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000601</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000715</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002559</t>
         </is>
       </c>
-      <c r="K10" s="1" t="inlineStr">
+      <c r="L10" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301282</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301282</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300834</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001260</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000862</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000862</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002454</t>
         </is>
       </c>
-      <c r="K11" s="1" t="inlineStr">
+      <c r="L11" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301298</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301298</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300922</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002384</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001333</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000863</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002852</t>
         </is>
       </c>
-      <c r="K12" s="1" t="inlineStr">
+      <c r="L12" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301330</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301330</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301658</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002486</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002469</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000899</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002885</t>
         </is>
       </c>
-      <c r="K13" s="1" t="inlineStr">
+      <c r="L13" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301353</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301353</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300409</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002537</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001209</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002996</t>
         </is>
       </c>
-      <c r="K14" s="1" t="inlineStr">
+      <c r="L14" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301566</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301566</t>
         </is>
@@ -1193,326 +1223,331 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SZ301658</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SZ300539</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301658</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002615</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301658</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301658</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301658</t>
         </is>
       </c>
-      <c r="K15" s="2" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301658</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301658</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300562</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300673</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001211</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300771</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300773</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001333</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300787</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300783</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002090</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300873</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300793</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002250</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300885</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300945</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002258</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300967</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301009</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002478</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300988</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301151</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002537</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301063</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301156</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002565</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301167</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001209</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002615</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301279</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001211</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002803</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301320</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002565</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002836</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301359</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002803</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002982</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301602</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ003037</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300138</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300610</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300673</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="H32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300773</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300783</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300793</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300945</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301009</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301151</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301156</t>
         </is>

--- a/instance/stock/sz/sz.xlsx
+++ b/instance/stock/sz/sz.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
@@ -460,65 +460,70 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>0520 - 0521</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>0519 - 0520</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>0516 - 0519</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>0515 - 0516</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>0513 - 0514</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>0508 - 0509</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>0507 - 0508</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>0506 - 0507</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>0430 - 0506</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>0502 - 0505</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>0428 - 0429</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>0425 - 0428</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>0424 - 0425</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>0423 - 0424</t>
         </is>
@@ -527,65 +532,70 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SZ002734</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SZ001356</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000507</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000863</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000677</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002345</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001282</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002033</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000532</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002852</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000426</t>
         </is>
       </c>
-      <c r="K2" s="2" t="inlineStr">
+      <c r="L2" s="2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002564，2025/04/29 11:45:12</t>
         </is>
       </c>
-      <c r="L2" s="1" t="inlineStr">
+      <c r="M2" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001226</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002479</t>
         </is>
@@ -642,17 +652,22 @@
           <t>https://xueqiu.com/S/SZ002592</t>
         </is>
       </c>
-      <c r="K3" s="2" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002592</t>
         </is>
       </c>
-      <c r="L3" s="1" t="inlineStr">
+      <c r="L3" s="2" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ002592</t>
+        </is>
+      </c>
+      <c r="M3" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002085</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002836</t>
         </is>
@@ -709,17 +724,22 @@
           <t>https://xueqiu.com/S/SZ301335</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301335</t>
         </is>
       </c>
-      <c r="L4" s="1" t="inlineStr">
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ301335</t>
+        </is>
+      </c>
+      <c r="M4" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002139</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301109</t>
         </is>
@@ -728,189 +748,194 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SZ300009</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SZ002245</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000905</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002722</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002103</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301283</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000600</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002164</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000570</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300505</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001228</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002564</t>
         </is>
       </c>
-      <c r="L5" s="1" t="inlineStr">
+      <c r="M5" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002917</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002917</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002553</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001234</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300891</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002803</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000677</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000862</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002251</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000600</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300562</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002054</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002836</t>
         </is>
       </c>
-      <c r="L6" s="1" t="inlineStr">
+      <c r="M6" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300018</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300018</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001205</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001333</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002982</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300507</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001206</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002367</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000715</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000532</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002249</t>
         </is>
       </c>
-      <c r="L7" s="1" t="inlineStr">
+      <c r="M7" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300790</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300790</t>
         </is>
@@ -919,287 +944,292 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SZ301161</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SZ002492</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002357</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301161</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301161</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001367</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002538</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002255</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000570</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002380</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301161</t>
         </is>
       </c>
-      <c r="L8" s="2" t="inlineStr">
+      <c r="M8" s="2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301161</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301161</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300387</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002106</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ003000</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300703</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000600</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002649</t>
         </is>
       </c>
-      <c r="L9" s="1" t="inlineStr">
+      <c r="M9" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301279</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301279</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300473</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000533</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301029</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000601</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000715</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002559</t>
         </is>
       </c>
-      <c r="L10" s="1" t="inlineStr">
+      <c r="M10" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301282</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301282</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300834</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001260</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000862</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000862</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002454</t>
         </is>
       </c>
-      <c r="L11" s="1" t="inlineStr">
+      <c r="M11" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301298</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301298</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300922</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002384</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001333</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000863</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002852</t>
         </is>
       </c>
-      <c r="L12" s="1" t="inlineStr">
+      <c r="M12" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301330</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301330</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301658</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002486</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002469</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000899</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002885</t>
         </is>
       </c>
-      <c r="L13" s="1" t="inlineStr">
+      <c r="M13" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301353</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301353</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300409</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002537</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001209</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002996</t>
         </is>
       </c>
-      <c r="L14" s="1" t="inlineStr">
+      <c r="M14" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301566</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301566</t>
         </is>
@@ -1228,326 +1258,331 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SZ301658</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SZ300539</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301658</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002615</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301658</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301658</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301658</t>
         </is>
       </c>
-      <c r="L15" s="2" t="inlineStr">
+      <c r="M15" s="2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301658</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301658</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300562</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300673</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001211</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300771</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300773</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001333</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300787</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300783</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002090</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300873</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300793</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002250</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300885</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300945</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002258</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300967</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301009</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002478</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300988</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301151</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002537</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301063</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301156</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002565</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301167</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001209</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002615</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301279</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001211</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002803</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301320</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002565</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002836</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301359</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002803</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002982</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301602</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ003037</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="I29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300138</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="I30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300610</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="I31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300673</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="I32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300773</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="I33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300783</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="I34" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300793</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="I35" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300945</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="I36" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301009</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="I37" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301151</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="I38" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301156</t>
         </is>

--- a/instance/stock/sz/sz.xlsx
+++ b/instance/stock/sz/sz.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
@@ -460,70 +460,75 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>0521 - 0522</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>0520 - 0521</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>0519 - 0520</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>0516 - 0519</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>0515 - 0516</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>0513 - 0514</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>0508 - 0509</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>0507 - 0508</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>0506 - 0507</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>0430 - 0506</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>0502 - 0505</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>0428 - 0429</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>0425 - 0428</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>0424 - 0425</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>0423 - 0424</t>
         </is>
@@ -532,70 +537,75 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SZ002103</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SZ002734</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001356</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000507</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000863</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000677</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002345</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001282</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002033</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000532</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002852</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000426</t>
         </is>
       </c>
-      <c r="L2" s="2" t="inlineStr">
+      <c r="M2" s="2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002564，2025/04/29 11:45:12</t>
         </is>
       </c>
-      <c r="M2" s="1" t="inlineStr">
+      <c r="N2" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001226</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002479</t>
         </is>
@@ -657,17 +667,22 @@
           <t>https://xueqiu.com/S/SZ002592</t>
         </is>
       </c>
-      <c r="L3" s="2" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002592</t>
         </is>
       </c>
-      <c r="M3" s="1" t="inlineStr">
+      <c r="M3" s="2" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ002592</t>
+        </is>
+      </c>
+      <c r="N3" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002085</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002836</t>
         </is>
@@ -729,213 +744,218 @@
           <t>https://xueqiu.com/S/SZ301335</t>
         </is>
       </c>
-      <c r="L4" s="2" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301335</t>
         </is>
       </c>
-      <c r="M4" s="1" t="inlineStr">
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ301335</t>
+        </is>
+      </c>
+      <c r="N4" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002139</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301109</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300009</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002245</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000905</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002722</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002103</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301283</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000600</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002164</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000570</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300505</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001228</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002564</t>
         </is>
       </c>
-      <c r="M5" s="1" t="inlineStr">
+      <c r="N5" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002917</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002917</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002553</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001234</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300891</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002803</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000677</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000862</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002251</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000600</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300562</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002054</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002836</t>
         </is>
       </c>
-      <c r="M6" s="1" t="inlineStr">
+      <c r="N6" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300018</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300018</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001205</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001333</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002982</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300507</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001206</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002367</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000715</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000532</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002249</t>
         </is>
       </c>
-      <c r="M7" s="1" t="inlineStr">
+      <c r="N7" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300790</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300790</t>
         </is>
@@ -949,287 +969,292 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SZ301161</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SZ002492</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002357</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301161</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301161</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001367</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002538</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002255</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000570</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002380</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301161</t>
         </is>
       </c>
-      <c r="M8" s="2" t="inlineStr">
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301161</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301161</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300387</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002106</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ003000</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300703</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000600</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002649</t>
         </is>
       </c>
-      <c r="M9" s="1" t="inlineStr">
+      <c r="N9" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301279</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301279</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300473</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000533</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301029</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000601</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000715</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002559</t>
         </is>
       </c>
-      <c r="M10" s="1" t="inlineStr">
+      <c r="N10" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301282</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301282</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300834</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001260</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000862</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000862</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002454</t>
         </is>
       </c>
-      <c r="M11" s="1" t="inlineStr">
+      <c r="N11" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301298</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301298</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300922</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002384</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001333</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000863</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002852</t>
         </is>
       </c>
-      <c r="M12" s="1" t="inlineStr">
+      <c r="N12" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301330</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301330</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301658</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002486</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002469</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000899</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002885</t>
         </is>
       </c>
-      <c r="M13" s="1" t="inlineStr">
+      <c r="N13" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301353</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301353</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300409</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002537</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001209</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002996</t>
         </is>
       </c>
-      <c r="M14" s="1" t="inlineStr">
+      <c r="N14" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301566</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301566</t>
         </is>
@@ -1263,326 +1288,331 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SZ301658</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SZ300539</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301658</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002615</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301658</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301658</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301658</t>
         </is>
       </c>
-      <c r="M15" s="2" t="inlineStr">
+      <c r="N15" s="2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301658</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301658</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300562</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300673</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001211</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300771</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300773</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001333</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300787</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300783</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002090</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300873</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300793</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002250</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300885</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300945</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002258</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300967</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301009</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002478</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300988</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301151</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002537</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301063</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301156</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002565</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301167</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001209</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002615</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301279</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001211</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002803</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301320</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002565</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002836</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301359</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002803</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002982</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301602</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ003037</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="J29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300138</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="J30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300610</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="J31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300673</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="J32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300773</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="J33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300783</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="J34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300793</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="J35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300945</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="J36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301009</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="J37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301151</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="J38" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301156</t>
         </is>

--- a/instance/stock/sz/sz.xlsx
+++ b/instance/stock/sz/sz.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
@@ -460,75 +460,85 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>0526 - 0527</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>0523 - 0526</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>0521 - 0522</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>0520 - 0521</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>0519 - 0520</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>0516 - 0519</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>0515 - 0516</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>0513 - 0514</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>0508 - 0509</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>0507 - 0508</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>0506 - 0507</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>0430 - 0506</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>0502 - 0505</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>0428 - 0429</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>0425 - 0428</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>0424 - 0425</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>0423 - 0424</t>
         </is>
@@ -537,75 +547,85 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SZ002259</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ001268</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SZ002103</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002734</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001356</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000507</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000863</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000677</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002345</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001282</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002033</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000532</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002852</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000426</t>
         </is>
       </c>
-      <c r="M2" s="2" t="inlineStr">
+      <c r="O2" s="2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002564，2025/04/29 11:45:12</t>
         </is>
       </c>
-      <c r="N2" s="1" t="inlineStr">
+      <c r="P2" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001226</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002479</t>
         </is>
@@ -672,17 +692,27 @@
           <t>https://xueqiu.com/S/SZ002592</t>
         </is>
       </c>
-      <c r="M3" s="2" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002592</t>
         </is>
       </c>
-      <c r="N3" s="1" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ002592</t>
+        </is>
+      </c>
+      <c r="O3" s="2" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ002592</t>
+        </is>
+      </c>
+      <c r="P3" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002085</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002836</t>
         </is>
@@ -749,512 +779,597 @@
           <t>https://xueqiu.com/S/SZ301335</t>
         </is>
       </c>
-      <c r="M4" s="2" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301335</t>
         </is>
       </c>
-      <c r="N4" s="1" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ301335</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ301335</t>
+        </is>
+      </c>
+      <c r="P4" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002139</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301109</t>
         </is>
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ002437</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SZ001318</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SZ300009</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002245</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000905</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002722</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002103</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301283</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000600</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002164</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000570</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300505</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001228</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002564</t>
         </is>
       </c>
-      <c r="N5" s="1" t="inlineStr">
+      <c r="P5" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002917</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002917</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="C6" t="inlineStr">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ002907</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ002045</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002553</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001234</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300891</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002803</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000677</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000862</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002251</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000600</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300562</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002054</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002836</t>
         </is>
       </c>
-      <c r="N6" s="1" t="inlineStr">
+      <c r="P6" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300018</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300018</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="D7" t="inlineStr">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ001207</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ002165</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001205</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001333</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002982</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300507</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001206</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002367</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000715</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000532</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002249</t>
         </is>
       </c>
-      <c r="N7" s="1" t="inlineStr">
+      <c r="P7" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300790</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300790</t>
         </is>
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ300967</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SZ002598</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SZ301161</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301161</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ301161</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002492</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002357</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301161</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301161</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001367</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002538</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002255</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000570</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002380</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301161</t>
         </is>
       </c>
-      <c r="N8" s="2" t="inlineStr">
+      <c r="P8" s="2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301161</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301161</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="D9" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ002730</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300387</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002106</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ003000</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300703</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000600</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002649</t>
         </is>
       </c>
-      <c r="N9" s="1" t="inlineStr">
+      <c r="P9" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301279</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301279</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="D10" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ300854</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300473</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000533</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301029</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000601</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000715</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002559</t>
         </is>
       </c>
-      <c r="N10" s="1" t="inlineStr">
+      <c r="P10" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301282</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301282</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="D11" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ300940</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300834</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001260</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000862</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000862</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002454</t>
         </is>
       </c>
-      <c r="N11" s="1" t="inlineStr">
+      <c r="P11" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301298</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301298</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="D12" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ301009</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300922</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002384</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001333</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000863</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002852</t>
         </is>
       </c>
-      <c r="N12" s="1" t="inlineStr">
+      <c r="P12" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301330</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301330</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="D13" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ301066</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301658</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002486</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002469</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ000899</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002885</t>
         </is>
       </c>
-      <c r="N13" s="1" t="inlineStr">
+      <c r="P13" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301353</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301353</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="H14" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ301139</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300409</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002537</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001209</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002996</t>
         </is>
       </c>
-      <c r="N14" s="1" t="inlineStr">
+      <c r="P14" s="1" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301566</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301566</t>
         </is>
@@ -1293,326 +1408,336 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
+          <t>https://xueqiu.com/S/SZ301658</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://xueqiu.com/S/SZ301658</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>https://xueqiu.com/S/SZ300539</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301658</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002615</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301658</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301658</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301658</t>
         </is>
       </c>
-      <c r="N15" s="2" t="inlineStr">
+      <c r="P15" s="2" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301658</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301658</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="H16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300562</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300673</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001211</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="H17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300771</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300773</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001333</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="H18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300787</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300783</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002090</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="H19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300873</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300793</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002250</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="H20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300885</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300945</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002258</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="H21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300967</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301009</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002478</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="H22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300988</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301151</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002537</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="H23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301063</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301156</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002565</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="H24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301167</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001209</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002615</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="H25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301279</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ001211</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002803</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="H26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301320</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002565</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002836</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="H27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301359</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002803</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ002982</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="H28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301602</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="M28" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ003037</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="K29" t="inlineStr">
+      <c r="M29" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300138</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="K30" t="inlineStr">
+      <c r="M30" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300610</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="K31" t="inlineStr">
+      <c r="M31" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300673</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="K32" t="inlineStr">
+      <c r="M32" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300773</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="K33" t="inlineStr">
+      <c r="M33" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300783</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="K34" t="inlineStr">
+      <c r="M34" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300793</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="K35" t="inlineStr">
+      <c r="M35" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ300945</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="K36" t="inlineStr">
+      <c r="M36" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301009</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="K37" t="inlineStr">
+      <c r="M37" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301151</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="K38" t="inlineStr">
+      <c r="M38" t="inlineStr">
         <is>
           <t>https://xueqiu.com/S/SZ301156</t>
         </is>
